--- a/xlsx/country_comparison/ncs_gcs_ics_all_control_features_median_belief_various.xlsx
+++ b/xlsx/country_comparison/ncs_gcs_ics_all_control_features_median_belief_various.xlsx
@@ -470,7 +470,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>67.8679804978435</v>
+        <v>67.8255122017956</v>
       </c>
       <c r="C2" t="n">
         <v>65.7193301686884</v>
@@ -500,7 +500,7 @@
         <v>67.987520077397</v>
       </c>
       <c r="L2" t="n">
-        <v>74.0846263450239</v>
+        <v>73.9047667329172</v>
       </c>
       <c r="M2" t="n">
         <v>88.0240645828152</v>
@@ -514,7 +514,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>55.2953815419129</v>
+        <v>55.3352948193206</v>
       </c>
       <c r="C3" t="n">
         <v>61.0914766632881</v>
@@ -544,7 +544,7 @@
         <v>56.8474042011213</v>
       </c>
       <c r="L3" t="n">
-        <v>48.4302557813727</v>
+        <v>48.6313846276599</v>
       </c>
       <c r="M3" t="n">
         <v>84.6671870687128</v>
@@ -644,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>64.7240480131028</v>
+        <v>64.7210522905015</v>
       </c>
       <c r="C6" t="n">
         <v>68.8160595583607</v>
@@ -688,10 +688,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>67.2054760884641</v>
+        <v>67.1354010141054</v>
       </c>
       <c r="C7" t="n">
-        <v>73.150166637206</v>
+        <v>73.1501666372061</v>
       </c>
       <c r="D7" t="n">
         <v>75.9578759812179</v>
@@ -718,7 +718,7 @@
         <v>67.292535125419</v>
       </c>
       <c r="L7" t="n">
-        <v>63.9033952437169</v>
+        <v>63.442019211072</v>
       </c>
       <c r="M7" t="n">
         <v>86.513074970901</v>
@@ -732,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>68.518253119246</v>
+        <v>68.4899159160604</v>
       </c>
       <c r="C8" t="n">
         <v>73.33558792255</v>
@@ -762,7 +762,7 @@
         <v>70.8149579691965</v>
       </c>
       <c r="L8" t="n">
-        <v>60.4866837966034</v>
+        <v>60.1821932205212</v>
       </c>
       <c r="M8" t="n">
         <v>90.518282762834</v>
@@ -776,7 +776,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>61.895417279981</v>
+        <v>61.8798692282585</v>
       </c>
       <c r="C9" t="n">
         <v>67.9633244466616</v>
@@ -806,7 +806,7 @@
         <v>63.3861854984241</v>
       </c>
       <c r="L9" t="n">
-        <v>54.11746546684</v>
+        <v>54.0183622108344</v>
       </c>
       <c r="M9" t="n">
         <v>87.5032786022504</v>
